--- a/Баг-репорты.xlsx
+++ b/Баг-репорты.xlsx
@@ -1,11 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28814"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="1016" documentId="11_9E4E55BF84DCCE936123EA198B31F45B1AF97439" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4008FDD9-9786-472D-8784-894853A7FEE1}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1234\Downloads\Треугольник\Треугольник\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -369,7 +373,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -569,8 +573,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="60">
@@ -661,25 +666,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -749,9 +754,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1"/>
+    <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1082,27 +1088,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:F17"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13:K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="4" width="25.28515625" customWidth="1"/>
-    <col min="5" max="5" width="32.7109375" customWidth="1"/>
-    <col min="6" max="6" width="36.85546875" customWidth="1"/>
-    <col min="7" max="7" width="35.5703125" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="4" customWidth="1"/>
-    <col min="13" max="13" width="19.5703125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" customWidth="1"/>
+    <col min="2" max="4" width="25.25" customWidth="1"/>
+    <col min="5" max="5" width="32.75" customWidth="1"/>
+    <col min="6" max="6" width="36.875" customWidth="1"/>
+    <col min="7" max="7" width="35.625" customWidth="1"/>
+    <col min="8" max="8" width="21.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.875" customWidth="1"/>
+    <col min="10" max="10" width="14.75" customWidth="1"/>
+    <col min="11" max="11" width="13.625" customWidth="1"/>
+    <col min="12" max="12" width="15.875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="19.625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.875" customWidth="1"/>
     <col min="15" max="15" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2721,24 +2727,24 @@
     <mergeCell ref="J33:J37"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K23:K27" r:id="rId1" display="Bug-5 screenshot" xr:uid="{B29385B8-A7B9-4E9B-8412-0065ED257841}"/>
-    <hyperlink ref="K18:K22" r:id="rId2" display="Bug-4 screenshot" xr:uid="{B064F5DA-CE45-4265-8DCD-9E5A38ABE127}"/>
-    <hyperlink ref="K3:K7" r:id="rId3" display="Bug-1 screenshot" xr:uid="{0DA3125E-3046-4270-A362-2608E9A22D29}"/>
-    <hyperlink ref="K28:K29" r:id="rId4" display="Bug-6_1 screenshot" xr:uid="{FD4BCC00-472C-424F-B74F-0863103D9188}"/>
-    <hyperlink ref="K30:K32" r:id="rId5" display="Bug-6_2 screenshot" xr:uid="{D65D99A3-0857-4F61-A478-648DFF585043}"/>
-    <hyperlink ref="K33:K34" r:id="rId6" display="Bug-7_1 screenshot" xr:uid="{8BB4B753-1BA6-4218-97F5-48FE262CBF76}"/>
-    <hyperlink ref="K35:K37" r:id="rId7" display="Bug-7_2 screenshot" xr:uid="{CE06BA8C-50E0-438F-B572-CA270F1D6D8A}"/>
-    <hyperlink ref="K58:K62" r:id="rId8" display="Bug-12 screenshot" xr:uid="{BE03963A-BCC3-49D7-A8E1-E87BCE345A46}"/>
-    <hyperlink ref="K38:K39" r:id="rId9" display="Bug-8_1 screenshot" xr:uid="{4DF96C9C-7200-4223-9AD5-B62D6208D52D}"/>
-    <hyperlink ref="K40:K42" r:id="rId10" display="Bug-8_2 screenshot" xr:uid="{BABF809F-7BD6-447E-930E-2505C453D6BF}"/>
-    <hyperlink ref="K43:K44" r:id="rId11" display="Bug-9_1 screenshot" xr:uid="{992618CD-E8C1-402D-93A3-402F8DD16D97}"/>
-    <hyperlink ref="K45:K47" r:id="rId12" display="Bug-9_2 screenshot" xr:uid="{49D46258-E036-4067-A412-4BDA47070C41}"/>
-    <hyperlink ref="K48:K49" r:id="rId13" display="Bug-10_1 screenshot" xr:uid="{F5F6E8C6-F41D-4EB1-84FC-C70DADD655FC}"/>
-    <hyperlink ref="K50:K52" r:id="rId14" display="Bug-10_2 screenshot" xr:uid="{FE44EC73-C70F-4AE7-8835-79BFD8FF0C67}"/>
-    <hyperlink ref="K53:K54" r:id="rId15" display="Bug-11_1 screenshot" xr:uid="{F8A16592-B52F-4CAC-8455-7A4247B897E8}"/>
-    <hyperlink ref="K55:K57" r:id="rId16" display="Bug-11_2 screenshot" xr:uid="{5F91B22A-A9E4-4BF9-8225-BC5E77B1F614}"/>
-    <hyperlink ref="K8:K12" r:id="rId17" display="Bug-2 screenshot" xr:uid="{FD0BAAD8-4F40-4018-9792-9CBA7365374E}"/>
-    <hyperlink ref="K13:K17" r:id="rId18" display="Bug-3 screenshot" xr:uid="{DC323DBC-0B41-43FD-95A5-184957D35E81}"/>
+    <hyperlink ref="K23:K27" r:id="rId1" display="Bug-5 screenshot"/>
+    <hyperlink ref="K18:K22" r:id="rId2" display="Bug-4 screenshot"/>
+    <hyperlink ref="K3:K7" r:id="rId3" display="Bug-1 screenshot"/>
+    <hyperlink ref="K28:K29" r:id="rId4" display="Bug-6_1 screenshot"/>
+    <hyperlink ref="K30:K32" r:id="rId5" display="Bug-6_2 screenshot"/>
+    <hyperlink ref="K33:K34" r:id="rId6" display="Bug-7_1 screenshot"/>
+    <hyperlink ref="K35:K37" r:id="rId7" display="Bug-7_2 screenshot"/>
+    <hyperlink ref="K58:K62" r:id="rId8" display="Bug-12 screenshot"/>
+    <hyperlink ref="K38:K39" r:id="rId9" display="Bug-8_1 screenshot"/>
+    <hyperlink ref="K40:K42" r:id="rId10" display="Bug-8_2 screenshot"/>
+    <hyperlink ref="K43:K44" r:id="rId11" display="Bug-9_1 screenshot"/>
+    <hyperlink ref="K45:K47" r:id="rId12" display="Bug-9_2 screenshot"/>
+    <hyperlink ref="K48:K49" r:id="rId13" display="Bug-10_1 screenshot"/>
+    <hyperlink ref="K50:K52" r:id="rId14" display="Bug-10_2 screenshot"/>
+    <hyperlink ref="K53:K54" r:id="rId15" display="Bug-11_1 screenshot"/>
+    <hyperlink ref="K55:K57" r:id="rId16" display="Bug-11_2 screenshot"/>
+    <hyperlink ref="K8:K12" r:id="rId17" display="Bug-2 screenshot"/>
+    <hyperlink ref="K13:K17" r:id="rId18" display="Bug-3 screenshot"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
